--- a/medicine/Mort/Nécropole_nationale_de_Vauxbuin/Nécropole_nationale_de_Vauxbuin.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Vauxbuin/Nécropole_nationale_de_Vauxbuin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Vauxbuin</t>
+          <t>Nécropole_nationale_de_Vauxbuin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Vauxbuin est un cimetière militaire de la Première Guerre mondiale situé sur le territoire de la commune de Vauxbuin en bord de la N 2, en direction Villers-Cotterêts, dans le département de l'Aisne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Vauxbuin</t>
+          <t>Nécropole_nationale_de_Vauxbuin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale de Vauxbuin a été aménagée en 1919. On y a regroupé les corps provenant de cimetières militaires provisoires de la région de Soissons : ceux de la Crise et au nord du ru de Savières, de Longpont où un cimetière, situé à proximité de la ferme de La Grille, contenait 628 tombes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale de Vauxbuin a été aménagée en 1919. On y a regroupé les corps provenant de cimetières militaires provisoires de la région de Soissons : ceux de la Crise et au nord du ru de Savières, de Longpont où un cimetière, situé à proximité de la ferme de La Grille, contenait 628 tombes.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Vauxbuin</t>
+          <t>Nécropole_nationale_de_Vauxbuin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale rassemble, sur une superficie de 1,6 ha, les corps de 4 916 soldats dont 4 899 combattants tués pendant la Grande Guerre et 17 combattants tués au cours de la Seconde Guerre mondiale[2]. 3 976 reposent dans des sépultures individuelles et 940 dans des sépultures collectives ou ossuaires.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale rassemble, sur une superficie de 1,6 ha, les corps de 4 916 soldats dont 4 899 combattants tués pendant la Grande Guerre et 17 combattants tués au cours de la Seconde Guerre mondiale. 3 976 reposent dans des sépultures individuelles et 940 dans des sépultures collectives ou ossuaires.
 			Entrée latérale (nord) du cimetière
 			Stèle avec registre français
 			Monument de l'ossuaire
